--- a/crop_data/xlsx_data/Elasticity_Data_New.xlsx
+++ b/crop_data/xlsx_data/Elasticity_Data_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saket\GitHub\Climate-Ag-Simulation\crop_data\xlsx_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AC9D4-0E86-4C78-8EC1-7ACFC61CE25A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA363370-ACBB-4761-975C-9FA6BDD4725D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="2775" windowWidth="18030" windowHeight="11730" xr2:uid="{EEA2A58A-1382-4A22-875A-7D1A9C56B7B9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EEA2A58A-1382-4A22-875A-7D1A9C56B7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A33756E-4A0A-47F4-97CE-6FECB74B6AA3}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="G31">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H31" s="9"/>
     </row>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H32" s="9"/>
     </row>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="G33">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H33" s="9"/>
     </row>
@@ -1827,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -1845,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="G35">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H35" s="9"/>
     </row>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H36" s="9"/>
     </row>
@@ -1881,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="G37">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H37" s="9"/>
     </row>
@@ -1899,7 +1899,7 @@
         <v>10</v>
       </c>
       <c r="G38">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H38" s="9"/>
     </row>
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="G39">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H39" s="9"/>
     </row>
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="G40">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H40" s="9"/>
     </row>
@@ -1953,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="G41">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H41" s="9"/>
     </row>
@@ -1971,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="G42">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H42" s="9"/>
     </row>
@@ -1989,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H43" s="9"/>
     </row>
@@ -2007,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="G44">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H44" s="9"/>
     </row>
@@ -2025,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="G45">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H45" s="9"/>
     </row>
@@ -2043,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="G46">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H46" s="9"/>
     </row>
@@ -2061,7 +2061,7 @@
         <v>10</v>
       </c>
       <c r="G47">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H47" s="9"/>
     </row>
@@ -2079,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="G48">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H48" s="9"/>
     </row>
@@ -2097,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="G49">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H49" s="9"/>
     </row>
@@ -2115,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="G50">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H50" s="9"/>
     </row>
@@ -2133,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="G51">
-        <v>-1.7745</v>
+        <v>1.7745</v>
       </c>
       <c r="H51" s="9"/>
     </row>
